--- a/Graphs/H1.xlsx
+++ b/Graphs/H1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tasmiashahriar/Desktop/CSC 722/Project/EvalDQNsOffline/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F636CE74-68B7-6B43-B3BA-6712242F45D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A69D3A-4525-B947-BE2A-99D87C3DF0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="560" windowWidth="26440" windowHeight="13980" activeTab="3" xr2:uid="{9E95AFC6-744F-814A-B055-638CB44968AC}"/>
+    <workbookView xWindow="2360" yWindow="560" windowWidth="26440" windowHeight="15860" activeTab="4" xr2:uid="{9E95AFC6-744F-814A-B055-638CB44968AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Gridworld_dm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Combined_grd_ndm" sheetId="6" r:id="rId5"/>
     <sheet name="Combined_grd_dm" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -12039,7 +12039,7 @@
   <dimension ref="A1:L405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H1" activeCellId="3" sqref="E1:E1048576 F1:F1048576 G1:G1048576 H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12093,14 +12093,14 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <f ca="1">AVERAGE(OFFSET($D$2,(ROW()-ROW($F$2))*10,,10,))</f>
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -12118,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>-10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -12132,14 +12132,14 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F11" ca="1" si="0">AVERAGE(OFFSET($D$2,(ROW()-ROW($F$2))*10,,10,))</f>
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -12178,7 +12178,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -12196,7 +12196,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -12210,14 +12210,14 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3</v>
+        <v>8.1</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -12235,7 +12235,7 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -12249,14 +12249,14 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>-4</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -12274,7 +12274,7 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -12288,14 +12288,14 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -12313,7 +12313,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <v>-3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -12327,14 +12327,14 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -12352,7 +12352,7 @@
         <v>6</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -12366,14 +12366,14 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>9.5</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -12391,7 +12391,7 @@
         <v>7</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -12405,14 +12405,14 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -12430,7 +12430,7 @@
         <v>8</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -12444,14 +12444,14 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -12469,7 +12469,7 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -12483,14 +12483,14 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
         <f ca="1">AVERAGE(OFFSET($D$103,(ROW()-ROW($F$12))*10,,10,))</f>
-        <v>1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -12508,7 +12508,7 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -12522,14 +12522,14 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F21" ca="1" si="1">AVERAGE(OFFSET($D$103,(ROW()-ROW($F$12))*10,,10,))</f>
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -12547,7 +12547,7 @@
         <v>11</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -12561,14 +12561,14 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E14">
         <v>3</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -12586,7 +12586,7 @@
         <v>12</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -12600,14 +12600,14 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>-1.6</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -12625,7 +12625,7 @@
         <v>13</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -12639,14 +12639,14 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="G16" t="s">
         <v>6</v>
@@ -12664,7 +12664,7 @@
         <v>14</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -12678,14 +12678,14 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -12703,7 +12703,7 @@
         <v>15</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -12717,14 +12717,14 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="G18" t="s">
         <v>6</v>
@@ -12742,7 +12742,7 @@
         <v>16</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -12756,14 +12756,14 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>8</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9</v>
+        <v>11.6</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -12781,7 +12781,7 @@
         <v>17</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -12795,14 +12795,14 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -12820,7 +12820,7 @@
         <v>18</v>
       </c>
       <c r="L20">
-        <v>-5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -12841,7 +12841,7 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -12859,7 +12859,7 @@
         <v>19</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -12873,14 +12873,14 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
         <f ca="1">AVERAGE(OFFSET($D$204,(ROW()-ROW($F$22))*10,,10,))</f>
-        <v>6.1</v>
+        <v>-2.1</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -12898,7 +12898,7 @@
         <v>20</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -12912,14 +12912,14 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F31" ca="1" si="2">AVERAGE(OFFSET($D$204,(ROW()-ROW($F$22))*10,,10,))</f>
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>8</v>
@@ -12937,7 +12937,7 @@
         <v>21</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -12951,14 +12951,14 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8000000000000007</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>8</v>
@@ -12976,7 +12976,7 @@
         <v>22</v>
       </c>
       <c r="L24">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -12990,14 +12990,14 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.1</v>
+        <v>1.7</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>8</v>
@@ -13015,7 +13015,7 @@
         <v>23</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -13029,14 +13029,14 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>8</v>
@@ -13054,7 +13054,7 @@
         <v>24</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -13068,14 +13068,14 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>8</v>
@@ -13093,7 +13093,7 @@
         <v>25</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -13107,14 +13107,14 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E28">
         <v>7</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2</v>
+        <v>-0.8</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>8</v>
@@ -13132,7 +13132,7 @@
         <v>26</v>
       </c>
       <c r="L28">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -13153,7 +13153,7 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>8</v>
@@ -13171,7 +13171,7 @@
         <v>27</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -13185,14 +13185,14 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>8</v>
@@ -13210,7 +13210,7 @@
         <v>28</v>
       </c>
       <c r="L30">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -13224,14 +13224,14 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>8</v>
@@ -13249,7 +13249,7 @@
         <v>29</v>
       </c>
       <c r="L31">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -13263,14 +13263,14 @@
         <v>30</v>
       </c>
       <c r="D32">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
         <f ca="1">AVERAGE(OFFSET($D$305,(ROW()-ROW($F$32))*10,,10,))</f>
-        <v>6</v>
+        <v>-0.4</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -13288,7 +13288,7 @@
         <v>30</v>
       </c>
       <c r="L32">
-        <v>-2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -13309,7 +13309,7 @@
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F41" ca="1" si="3">AVERAGE(OFFSET($D$305,(ROW()-ROW($F$32))*10,,10,))</f>
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="G33" t="s">
         <v>9</v>
@@ -13327,7 +13327,7 @@
         <v>31</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -13341,14 +13341,14 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -13380,14 +13380,14 @@
         <v>33</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -13405,7 +13405,7 @@
         <v>33</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -13419,14 +13419,14 @@
         <v>34</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="3"/>
-        <v>10.1</v>
+        <v>-1</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
@@ -13444,7 +13444,7 @@
         <v>34</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -13458,14 +13458,14 @@
         <v>35</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -13483,7 +13483,7 @@
         <v>35</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -13504,7 +13504,7 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="3"/>
-        <v>-0.3</v>
+        <v>1.7</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
@@ -13536,14 +13536,14 @@
         <v>37</v>
       </c>
       <c r="D39">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E39">
         <v>8</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -13561,7 +13561,7 @@
         <v>37</v>
       </c>
       <c r="L39">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -13575,14 +13575,14 @@
         <v>38</v>
       </c>
       <c r="D40">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E40">
         <v>9</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -13600,7 +13600,7 @@
         <v>38</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -13639,7 +13639,7 @@
         <v>39</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -13660,7 +13660,7 @@
       </c>
       <c r="F42">
         <f ca="1">AVERAGE(OFFSET($L$2,(ROW()-ROW($F$42))*10,,10,))</f>
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -13678,7 +13678,7 @@
         <v>40</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -13692,14 +13692,14 @@
         <v>41</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43">
         <f t="shared" ref="F43:F51" ca="1" si="4">AVERAGE(OFFSET($L$2,(ROW()-ROW($F$42))*10,,10,))</f>
-        <v>3.1</v>
+        <v>18.7</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
@@ -13717,7 +13717,7 @@
         <v>41</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -13731,14 +13731,14 @@
         <v>42</v>
       </c>
       <c r="D44">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="4"/>
-        <v>4.4000000000000004</v>
+        <v>10.3</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -13756,7 +13756,7 @@
         <v>42</v>
       </c>
       <c r="L44">
-        <v>-8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -13770,14 +13770,14 @@
         <v>43</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E45">
         <v>4</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>4.3</v>
+        <v>11.6</v>
       </c>
       <c r="G45" t="s">
         <v>5</v>
@@ -13795,7 +13795,7 @@
         <v>43</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -13809,14 +13809,14 @@
         <v>44</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E46">
         <v>5</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -13834,7 +13834,7 @@
         <v>44</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -13848,14 +13848,14 @@
         <v>45</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="E47">
         <v>6</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>3.6</v>
+        <v>14.7</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
@@ -13873,7 +13873,7 @@
         <v>45</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -13887,14 +13887,14 @@
         <v>46</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>11.6</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
@@ -13926,14 +13926,14 @@
         <v>47</v>
       </c>
       <c r="D49">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E49">
         <v>8</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -13951,7 +13951,7 @@
         <v>47</v>
       </c>
       <c r="L49">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -13965,14 +13965,14 @@
         <v>48</v>
       </c>
       <c r="D50">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="E50">
         <v>9</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>9.4</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
@@ -13990,7 +13990,7 @@
         <v>48</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -14004,14 +14004,14 @@
         <v>49</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E51">
         <v>10</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="G51" t="s">
         <v>5</v>
@@ -14029,7 +14029,7 @@
         <v>49</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -14050,7 +14050,7 @@
       </c>
       <c r="F52">
         <f ca="1">AVERAGE(OFFSET($L$103,(ROW()-ROW($F$52))*10,,10,))</f>
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
       <c r="G52" t="s">
         <v>6</v>
@@ -14068,7 +14068,7 @@
         <v>50</v>
       </c>
       <c r="L52">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -14082,14 +14082,14 @@
         <v>51</v>
       </c>
       <c r="D53">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53">
         <f t="shared" ref="F53:F61" ca="1" si="5">AVERAGE(OFFSET($L$103,(ROW()-ROW($F$52))*10,,10,))</f>
-        <v>5.0999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="G53" t="s">
         <v>6</v>
@@ -14107,7 +14107,7 @@
         <v>51</v>
       </c>
       <c r="L53">
-        <v>-9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -14121,14 +14121,14 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="5"/>
-        <v>2.6</v>
+        <v>14.2</v>
       </c>
       <c r="G54" t="s">
         <v>6</v>
@@ -14146,7 +14146,7 @@
         <v>52</v>
       </c>
       <c r="L54">
-        <v>-8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -14160,14 +14160,14 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E55">
         <v>4</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3</v>
+        <v>13.6</v>
       </c>
       <c r="G55" t="s">
         <v>6</v>
@@ -14185,7 +14185,7 @@
         <v>53</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -14199,14 +14199,14 @@
         <v>54</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1</v>
+        <v>11.6</v>
       </c>
       <c r="G56" t="s">
         <v>6</v>
@@ -14224,7 +14224,7 @@
         <v>54</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -14238,14 +14238,14 @@
         <v>55</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E57">
         <v>6</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
+        <v>11.6</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
@@ -14263,7 +14263,7 @@
         <v>55</v>
       </c>
       <c r="L57">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -14277,14 +14277,14 @@
         <v>56</v>
       </c>
       <c r="D58">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="E58">
         <v>7</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="5"/>
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
@@ -14302,7 +14302,7 @@
         <v>56</v>
       </c>
       <c r="L58">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -14316,14 +14316,14 @@
         <v>57</v>
       </c>
       <c r="D59">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E59">
         <v>8</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8</v>
+        <v>15.1</v>
       </c>
       <c r="G59" t="s">
         <v>6</v>
@@ -14341,7 +14341,7 @@
         <v>57</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -14355,14 +14355,14 @@
         <v>58</v>
       </c>
       <c r="D60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>9</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="5"/>
-        <v>2.4</v>
+        <v>15.1</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
@@ -14394,14 +14394,14 @@
         <v>59</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E61">
         <v>10</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>13.2</v>
       </c>
       <c r="G61" t="s">
         <v>6</v>
@@ -14419,7 +14419,7 @@
         <v>59</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -14433,14 +14433,14 @@
         <v>60</v>
       </c>
       <c r="D62">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
         <f ca="1">AVERAGE(OFFSET($L$204,(ROW()-ROW($F$62))*10,,10,))</f>
-        <v>2.2999999999999998</v>
+        <v>5</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>8</v>
@@ -14458,7 +14458,7 @@
         <v>60</v>
       </c>
       <c r="L62">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -14472,14 +14472,14 @@
         <v>61</v>
       </c>
       <c r="D63">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E63">
         <v>2</v>
       </c>
       <c r="F63">
         <f t="shared" ref="F63:F71" ca="1" si="6">AVERAGE(OFFSET($L$204,(ROW()-ROW($F$62))*10,,10,))</f>
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>8</v>
@@ -14497,7 +14497,7 @@
         <v>61</v>
       </c>
       <c r="L63">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -14511,14 +14511,14 @@
         <v>62</v>
       </c>
       <c r="D64">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>2.2999999999999998</v>
+        <v>6.6</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>8</v>
@@ -14536,7 +14536,7 @@
         <v>62</v>
       </c>
       <c r="L64">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -14550,14 +14550,14 @@
         <v>63</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E65">
         <v>4</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9</v>
+        <v>10.3</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>8</v>
@@ -14575,7 +14575,7 @@
         <v>63</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>1.9</v>
+        <v>11.7</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>8</v>
@@ -14614,7 +14614,7 @@
         <v>64</v>
       </c>
       <c r="L66">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -14628,14 +14628,14 @@
         <v>65</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E67">
         <v>6</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>8</v>
@@ -14653,7 +14653,7 @@
         <v>65</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -14667,14 +14667,14 @@
         <v>66</v>
       </c>
       <c r="D68">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="E68">
         <v>7</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1999999999999993</v>
+        <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>8</v>
@@ -14692,7 +14692,7 @@
         <v>66</v>
       </c>
       <c r="L68">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -14706,14 +14706,14 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E69">
         <v>8</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>14.2</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>8</v>
@@ -14731,7 +14731,7 @@
         <v>67</v>
       </c>
       <c r="L69">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -14745,14 +14745,14 @@
         <v>68</v>
       </c>
       <c r="D70">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E70">
         <v>9</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>7.2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>8</v>
@@ -14770,7 +14770,7 @@
         <v>68</v>
       </c>
       <c r="L70">
-        <v>-4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -14784,14 +14784,14 @@
         <v>69</v>
       </c>
       <c r="D71">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="E71">
         <v>10</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>8</v>
@@ -14809,7 +14809,7 @@
         <v>69</v>
       </c>
       <c r="L71">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -14823,14 +14823,14 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
         <f ca="1">AVERAGE(OFFSET($L$305,(ROW()-ROW($F$72))*10,,10,))</f>
-        <v>-0.2</v>
+        <v>12.6</v>
       </c>
       <c r="G72" t="s">
         <v>9</v>
@@ -14848,7 +14848,7 @@
         <v>70</v>
       </c>
       <c r="L72">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -14862,14 +14862,14 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>-5</v>
+        <v>27</v>
       </c>
       <c r="E73">
         <v>2</v>
       </c>
       <c r="F73">
         <f t="shared" ref="F73:F81" ca="1" si="7">AVERAGE(OFFSET($L$305,(ROW()-ROW($F$72))*10,,10,))</f>
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
@@ -14887,7 +14887,7 @@
         <v>71</v>
       </c>
       <c r="L73">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -14901,14 +14901,14 @@
         <v>72</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>3</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.2</v>
+        <v>1.6</v>
       </c>
       <c r="G74" t="s">
         <v>9</v>
@@ -14926,7 +14926,7 @@
         <v>72</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -14940,14 +14940,14 @@
         <v>73</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E75">
         <v>4</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
@@ -14965,7 +14965,7 @@
         <v>73</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -14979,14 +14979,14 @@
         <v>74</v>
       </c>
       <c r="D76">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="E76">
         <v>5</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="G76" t="s">
         <v>9</v>
@@ -15004,7 +15004,7 @@
         <v>74</v>
       </c>
       <c r="L76">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -15018,14 +15018,14 @@
         <v>75</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="7"/>
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
@@ -15043,7 +15043,7 @@
         <v>75</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -15057,14 +15057,14 @@
         <v>76</v>
       </c>
       <c r="D78">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>7</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="7"/>
-        <v>4.2</v>
+        <v>12.2</v>
       </c>
       <c r="G78" t="s">
         <v>9</v>
@@ -15082,7 +15082,7 @@
         <v>76</v>
       </c>
       <c r="L78">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -15096,14 +15096,14 @@
         <v>77</v>
       </c>
       <c r="D79">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="E79">
         <v>8</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
@@ -15121,7 +15121,7 @@
         <v>77</v>
       </c>
       <c r="L79">
-        <v>-14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -15135,14 +15135,14 @@
         <v>78</v>
       </c>
       <c r="D80">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <v>9</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="7"/>
-        <v>-0.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
@@ -15160,7 +15160,7 @@
         <v>78</v>
       </c>
       <c r="L80">
-        <v>-4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -15174,14 +15174,14 @@
         <v>79</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E81">
         <v>10</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="7"/>
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -15199,7 +15199,7 @@
         <v>79</v>
       </c>
       <c r="L81">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -15225,7 +15225,7 @@
         <v>80</v>
       </c>
       <c r="L82">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -15239,7 +15239,7 @@
         <v>81</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
@@ -15265,7 +15265,7 @@
         <v>82</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
@@ -15277,7 +15277,7 @@
         <v>82</v>
       </c>
       <c r="L84">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -15291,7 +15291,7 @@
         <v>83</v>
       </c>
       <c r="D85">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
@@ -15303,7 +15303,7 @@
         <v>83</v>
       </c>
       <c r="L85">
-        <v>-8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -15317,7 +15317,7 @@
         <v>84</v>
       </c>
       <c r="D86">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
@@ -15329,7 +15329,7 @@
         <v>84</v>
       </c>
       <c r="L86">
-        <v>-9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -15343,7 +15343,7 @@
         <v>85</v>
       </c>
       <c r="D87">
-        <v>-4</v>
+        <v>22</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -15355,7 +15355,7 @@
         <v>85</v>
       </c>
       <c r="L87">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -15369,7 +15369,7 @@
         <v>86</v>
       </c>
       <c r="D88">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -15381,7 +15381,7 @@
         <v>86</v>
       </c>
       <c r="L88">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -15395,7 +15395,7 @@
         <v>87</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I89" t="s">
         <v>5</v>
@@ -15407,7 +15407,7 @@
         <v>87</v>
       </c>
       <c r="L89">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -15421,7 +15421,7 @@
         <v>88</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -15433,7 +15433,7 @@
         <v>88</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -15447,7 +15447,7 @@
         <v>89</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
@@ -15459,7 +15459,7 @@
         <v>89</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -15473,7 +15473,7 @@
         <v>90</v>
       </c>
       <c r="D92">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
@@ -15485,7 +15485,7 @@
         <v>90</v>
       </c>
       <c r="L92">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -15499,7 +15499,7 @@
         <v>91</v>
       </c>
       <c r="D93">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
@@ -15511,7 +15511,7 @@
         <v>91</v>
       </c>
       <c r="L93">
-        <v>-9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -15525,7 +15525,7 @@
         <v>92</v>
       </c>
       <c r="D94">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -15537,7 +15537,7 @@
         <v>92</v>
       </c>
       <c r="L94">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -15551,7 +15551,7 @@
         <v>93</v>
       </c>
       <c r="D95">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
@@ -15563,7 +15563,7 @@
         <v>93</v>
       </c>
       <c r="L95">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -15577,7 +15577,7 @@
         <v>94</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
@@ -15589,7 +15589,7 @@
         <v>94</v>
       </c>
       <c r="L96">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -15603,7 +15603,7 @@
         <v>95</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
@@ -15615,7 +15615,7 @@
         <v>95</v>
       </c>
       <c r="L97">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -15629,7 +15629,7 @@
         <v>96</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -15641,7 +15641,7 @@
         <v>96</v>
       </c>
       <c r="L98">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -15655,7 +15655,7 @@
         <v>97</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
@@ -15667,7 +15667,7 @@
         <v>97</v>
       </c>
       <c r="L99">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -15681,7 +15681,7 @@
         <v>98</v>
       </c>
       <c r="D100">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I100" t="s">
         <v>5</v>
@@ -15693,7 +15693,7 @@
         <v>98</v>
       </c>
       <c r="L100">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -15707,7 +15707,7 @@
         <v>99</v>
       </c>
       <c r="D101">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
@@ -15719,7 +15719,7 @@
         <v>99</v>
       </c>
       <c r="L101">
-        <v>-10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -15733,7 +15733,7 @@
         <v>100</v>
       </c>
       <c r="D102">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
@@ -15745,7 +15745,7 @@
         <v>100</v>
       </c>
       <c r="L102">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -15759,7 +15759,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="s">
         <v>6</v>
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>-1</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>6</v>
@@ -15797,7 +15797,7 @@
         <v>1</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -15823,7 +15823,7 @@
         <v>2</v>
       </c>
       <c r="L105">
-        <v>-6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -15837,7 +15837,7 @@
         <v>3</v>
       </c>
       <c r="D106">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I106" t="s">
         <v>6</v>
@@ -15849,7 +15849,7 @@
         <v>3</v>
       </c>
       <c r="L106">
-        <v>-5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -15863,7 +15863,7 @@
         <v>4</v>
       </c>
       <c r="D107">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="I107" t="s">
         <v>6</v>
@@ -15875,7 +15875,7 @@
         <v>4</v>
       </c>
       <c r="L107">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -15889,7 +15889,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>6</v>
@@ -15901,7 +15901,7 @@
         <v>5</v>
       </c>
       <c r="L108">
-        <v>-3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -15915,7 +15915,7 @@
         <v>6</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I109" t="s">
         <v>6</v>
@@ -15927,7 +15927,7 @@
         <v>6</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -15953,7 +15953,7 @@
         <v>7</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -15967,7 +15967,7 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I111" t="s">
         <v>6</v>
@@ -15979,7 +15979,7 @@
         <v>8</v>
       </c>
       <c r="L111">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -15993,7 +15993,7 @@
         <v>9</v>
       </c>
       <c r="D112">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="I112" t="s">
         <v>6</v>
@@ -16005,7 +16005,7 @@
         <v>9</v>
       </c>
       <c r="L112">
-        <v>-9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -16019,7 +16019,7 @@
         <v>10</v>
       </c>
       <c r="D113">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I113" t="s">
         <v>6</v>
@@ -16031,7 +16031,7 @@
         <v>10</v>
       </c>
       <c r="L113">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -16045,7 +16045,7 @@
         <v>11</v>
       </c>
       <c r="D114">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>6</v>
@@ -16057,7 +16057,7 @@
         <v>11</v>
       </c>
       <c r="L114">
-        <v>-3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -16071,7 +16071,7 @@
         <v>12</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I115" t="s">
         <v>6</v>
@@ -16083,7 +16083,7 @@
         <v>12</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -16097,7 +16097,7 @@
         <v>13</v>
       </c>
       <c r="D116">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
         <v>6</v>
@@ -16109,7 +16109,7 @@
         <v>13</v>
       </c>
       <c r="L116">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -16123,7 +16123,7 @@
         <v>14</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I117" t="s">
         <v>6</v>
@@ -16135,7 +16135,7 @@
         <v>14</v>
       </c>
       <c r="L117">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -16149,7 +16149,7 @@
         <v>15</v>
       </c>
       <c r="D118">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
         <v>6</v>
@@ -16161,7 +16161,7 @@
         <v>15</v>
       </c>
       <c r="L118">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -16187,7 +16187,7 @@
         <v>16</v>
       </c>
       <c r="L119">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -16213,7 +16213,7 @@
         <v>17</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -16227,7 +16227,7 @@
         <v>18</v>
       </c>
       <c r="D121">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I121" t="s">
         <v>6</v>
@@ -16239,7 +16239,7 @@
         <v>18</v>
       </c>
       <c r="L121">
-        <v>-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -16253,7 +16253,7 @@
         <v>19</v>
       </c>
       <c r="D122">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="I122" t="s">
         <v>6</v>
@@ -16265,7 +16265,7 @@
         <v>19</v>
       </c>
       <c r="L122">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -16279,7 +16279,7 @@
         <v>20</v>
       </c>
       <c r="D123">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I123" t="s">
         <v>6</v>
@@ -16291,7 +16291,7 @@
         <v>20</v>
       </c>
       <c r="L123">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -16305,7 +16305,7 @@
         <v>21</v>
       </c>
       <c r="D124">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I124" t="s">
         <v>6</v>
@@ -16317,7 +16317,7 @@
         <v>21</v>
       </c>
       <c r="L124">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -16331,7 +16331,7 @@
         <v>22</v>
       </c>
       <c r="D125">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I125" t="s">
         <v>6</v>
@@ -16343,7 +16343,7 @@
         <v>22</v>
       </c>
       <c r="L125">
-        <v>-3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -16369,7 +16369,7 @@
         <v>23</v>
       </c>
       <c r="L126">
-        <v>-3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -16383,7 +16383,7 @@
         <v>24</v>
       </c>
       <c r="D127">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
         <v>6</v>
@@ -16395,7 +16395,7 @@
         <v>24</v>
       </c>
       <c r="L127">
-        <v>12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -16409,7 +16409,7 @@
         <v>25</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I128" t="s">
         <v>6</v>
@@ -16421,7 +16421,7 @@
         <v>25</v>
       </c>
       <c r="L128">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -16435,7 +16435,7 @@
         <v>26</v>
       </c>
       <c r="D129">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I129" t="s">
         <v>6</v>
@@ -16447,7 +16447,7 @@
         <v>26</v>
       </c>
       <c r="L129">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -16461,7 +16461,7 @@
         <v>27</v>
       </c>
       <c r="D130">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="I130" t="s">
         <v>6</v>
@@ -16473,7 +16473,7 @@
         <v>27</v>
       </c>
       <c r="L130">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -16487,7 +16487,7 @@
         <v>28</v>
       </c>
       <c r="D131">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
         <v>6</v>
@@ -16499,7 +16499,7 @@
         <v>28</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -16513,7 +16513,7 @@
         <v>29</v>
       </c>
       <c r="D132">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="I132" t="s">
         <v>6</v>
@@ -16525,7 +16525,7 @@
         <v>29</v>
       </c>
       <c r="L132">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -16539,7 +16539,7 @@
         <v>30</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="I133" t="s">
         <v>6</v>
@@ -16551,7 +16551,7 @@
         <v>30</v>
       </c>
       <c r="L133">
-        <v>-14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -16565,7 +16565,7 @@
         <v>31</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>6</v>
@@ -16577,7 +16577,7 @@
         <v>31</v>
       </c>
       <c r="L134">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -16591,7 +16591,7 @@
         <v>32</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I135" t="s">
         <v>6</v>
@@ -16603,7 +16603,7 @@
         <v>32</v>
       </c>
       <c r="L135">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -16617,7 +16617,7 @@
         <v>33</v>
       </c>
       <c r="D136">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="I136" t="s">
         <v>6</v>
@@ -16629,7 +16629,7 @@
         <v>33</v>
       </c>
       <c r="L136">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -16643,7 +16643,7 @@
         <v>34</v>
       </c>
       <c r="D137">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="I137" t="s">
         <v>6</v>
@@ -16655,7 +16655,7 @@
         <v>34</v>
       </c>
       <c r="L137">
-        <v>-5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -16669,7 +16669,7 @@
         <v>35</v>
       </c>
       <c r="D138">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
         <v>6</v>
@@ -16681,7 +16681,7 @@
         <v>35</v>
       </c>
       <c r="L138">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -16695,7 +16695,7 @@
         <v>36</v>
       </c>
       <c r="D139">
-        <v>26</v>
+        <v>-4</v>
       </c>
       <c r="I139" t="s">
         <v>6</v>
@@ -16707,7 +16707,7 @@
         <v>36</v>
       </c>
       <c r="L139">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -16721,7 +16721,7 @@
         <v>37</v>
       </c>
       <c r="D140">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I140" t="s">
         <v>6</v>
@@ -16733,7 +16733,7 @@
         <v>37</v>
       </c>
       <c r="L140">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -16759,7 +16759,7 @@
         <v>38</v>
       </c>
       <c r="L141">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -16773,7 +16773,7 @@
         <v>39</v>
       </c>
       <c r="D142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>6</v>
@@ -16785,7 +16785,7 @@
         <v>39</v>
       </c>
       <c r="L142">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -16799,7 +16799,7 @@
         <v>40</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="I143" t="s">
         <v>6</v>
@@ -16811,7 +16811,7 @@
         <v>40</v>
       </c>
       <c r="L143">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -16825,7 +16825,7 @@
         <v>41</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I144" t="s">
         <v>6</v>
@@ -16837,7 +16837,7 @@
         <v>41</v>
       </c>
       <c r="L144">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -16851,7 +16851,7 @@
         <v>42</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="s">
         <v>6</v>
@@ -16863,7 +16863,7 @@
         <v>42</v>
       </c>
       <c r="L145">
-        <v>-2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -16877,7 +16877,7 @@
         <v>43</v>
       </c>
       <c r="D146">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
         <v>6</v>
@@ -16889,7 +16889,7 @@
         <v>43</v>
       </c>
       <c r="L146">
-        <v>-14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -16903,7 +16903,7 @@
         <v>44</v>
       </c>
       <c r="D147">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="s">
         <v>6</v>
@@ -16915,7 +16915,7 @@
         <v>44</v>
       </c>
       <c r="L147">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -16929,7 +16929,7 @@
         <v>45</v>
       </c>
       <c r="D148">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I148" t="s">
         <v>6</v>
@@ -16941,7 +16941,7 @@
         <v>45</v>
       </c>
       <c r="L148">
-        <v>-13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -16955,7 +16955,7 @@
         <v>46</v>
       </c>
       <c r="D149">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="I149" t="s">
         <v>6</v>
@@ -16967,7 +16967,7 @@
         <v>46</v>
       </c>
       <c r="L149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -16981,7 +16981,7 @@
         <v>47</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I150" t="s">
         <v>6</v>
@@ -16993,7 +16993,7 @@
         <v>47</v>
       </c>
       <c r="L150">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -17007,7 +17007,7 @@
         <v>48</v>
       </c>
       <c r="D151">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I151" t="s">
         <v>6</v>
@@ -17019,7 +17019,7 @@
         <v>48</v>
       </c>
       <c r="L151">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -17033,7 +17033,7 @@
         <v>49</v>
       </c>
       <c r="D152">
-        <v>-6</v>
+        <v>26</v>
       </c>
       <c r="I152" t="s">
         <v>6</v>
@@ -17045,7 +17045,7 @@
         <v>49</v>
       </c>
       <c r="L152">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -17085,7 +17085,7 @@
         <v>51</v>
       </c>
       <c r="D154">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="I154" t="s">
         <v>6</v>
@@ -17097,7 +17097,7 @@
         <v>51</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -17111,7 +17111,7 @@
         <v>52</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I155" t="s">
         <v>6</v>
@@ -17123,7 +17123,7 @@
         <v>52</v>
       </c>
       <c r="L155">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -17137,7 +17137,7 @@
         <v>53</v>
       </c>
       <c r="D156">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I156" t="s">
         <v>6</v>
@@ -17149,7 +17149,7 @@
         <v>53</v>
       </c>
       <c r="L156">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -17163,7 +17163,7 @@
         <v>54</v>
       </c>
       <c r="D157">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="I157" t="s">
         <v>6</v>
@@ -17175,7 +17175,7 @@
         <v>54</v>
       </c>
       <c r="L157">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -17189,7 +17189,7 @@
         <v>55</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I158" t="s">
         <v>6</v>
@@ -17201,7 +17201,7 @@
         <v>55</v>
       </c>
       <c r="L158">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -17215,7 +17215,7 @@
         <v>56</v>
       </c>
       <c r="D159">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I159" t="s">
         <v>6</v>
@@ -17227,7 +17227,7 @@
         <v>56</v>
       </c>
       <c r="L159">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -17241,7 +17241,7 @@
         <v>57</v>
       </c>
       <c r="D160">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I160" t="s">
         <v>6</v>
@@ -17253,7 +17253,7 @@
         <v>57</v>
       </c>
       <c r="L160">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -17267,7 +17267,7 @@
         <v>58</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I161" t="s">
         <v>6</v>
@@ -17279,7 +17279,7 @@
         <v>58</v>
       </c>
       <c r="L161">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -17293,7 +17293,7 @@
         <v>59</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I162" t="s">
         <v>6</v>
@@ -17305,7 +17305,7 @@
         <v>59</v>
       </c>
       <c r="L162">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -17319,7 +17319,7 @@
         <v>60</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I163" t="s">
         <v>6</v>
@@ -17331,7 +17331,7 @@
         <v>60</v>
       </c>
       <c r="L163">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -17345,7 +17345,7 @@
         <v>61</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I164" t="s">
         <v>6</v>
@@ -17357,7 +17357,7 @@
         <v>61</v>
       </c>
       <c r="L164">
-        <v>-8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -17371,7 +17371,7 @@
         <v>62</v>
       </c>
       <c r="D165">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
         <v>6</v>
@@ -17383,7 +17383,7 @@
         <v>62</v>
       </c>
       <c r="L165">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -17397,7 +17397,7 @@
         <v>63</v>
       </c>
       <c r="D166">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I166" t="s">
         <v>6</v>
@@ -17409,7 +17409,7 @@
         <v>63</v>
       </c>
       <c r="L166">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -17423,7 +17423,7 @@
         <v>64</v>
       </c>
       <c r="D167">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="I167" t="s">
         <v>6</v>
@@ -17435,7 +17435,7 @@
         <v>64</v>
       </c>
       <c r="L167">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -17449,7 +17449,7 @@
         <v>65</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I168" t="s">
         <v>6</v>
@@ -17461,7 +17461,7 @@
         <v>65</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -17475,7 +17475,7 @@
         <v>66</v>
       </c>
       <c r="D169">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I169" t="s">
         <v>6</v>
@@ -17487,7 +17487,7 @@
         <v>66</v>
       </c>
       <c r="L169">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -17501,7 +17501,7 @@
         <v>67</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I170" t="s">
         <v>6</v>
@@ -17513,7 +17513,7 @@
         <v>67</v>
       </c>
       <c r="L170">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -17527,7 +17527,7 @@
         <v>68</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I171" t="s">
         <v>6</v>
@@ -17539,7 +17539,7 @@
         <v>68</v>
       </c>
       <c r="L171">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -17553,7 +17553,7 @@
         <v>69</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I172" t="s">
         <v>6</v>
@@ -17605,7 +17605,7 @@
         <v>71</v>
       </c>
       <c r="D174">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I174" t="s">
         <v>6</v>
@@ -17617,7 +17617,7 @@
         <v>71</v>
       </c>
       <c r="L174">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -17631,7 +17631,7 @@
         <v>72</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I175" t="s">
         <v>6</v>
@@ -17643,7 +17643,7 @@
         <v>72</v>
       </c>
       <c r="L175">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -17657,7 +17657,7 @@
         <v>73</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I176" t="s">
         <v>6</v>
@@ -17683,7 +17683,7 @@
         <v>74</v>
       </c>
       <c r="D177">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="I177" t="s">
         <v>6</v>
@@ -17695,7 +17695,7 @@
         <v>74</v>
       </c>
       <c r="L177">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -17721,7 +17721,7 @@
         <v>75</v>
       </c>
       <c r="L178">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -17735,7 +17735,7 @@
         <v>76</v>
       </c>
       <c r="D179">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I179" t="s">
         <v>6</v>
@@ -17747,7 +17747,7 @@
         <v>76</v>
       </c>
       <c r="L179">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -17761,7 +17761,7 @@
         <v>77</v>
       </c>
       <c r="D180">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="I180" t="s">
         <v>6</v>
@@ -17773,7 +17773,7 @@
         <v>77</v>
       </c>
       <c r="L180">
-        <v>-9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -17787,7 +17787,7 @@
         <v>78</v>
       </c>
       <c r="D181">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I181" t="s">
         <v>6</v>
@@ -17799,7 +17799,7 @@
         <v>78</v>
       </c>
       <c r="L181">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -17813,7 +17813,7 @@
         <v>79</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="I182" t="s">
         <v>6</v>
@@ -17825,7 +17825,7 @@
         <v>79</v>
       </c>
       <c r="L182">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -17839,7 +17839,7 @@
         <v>80</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I183" t="s">
         <v>6</v>
@@ -17851,7 +17851,7 @@
         <v>80</v>
       </c>
       <c r="L183">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -17865,7 +17865,7 @@
         <v>81</v>
       </c>
       <c r="D184">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I184" t="s">
         <v>6</v>
@@ -17877,7 +17877,7 @@
         <v>81</v>
       </c>
       <c r="L184">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -17891,7 +17891,7 @@
         <v>82</v>
       </c>
       <c r="D185">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I185" t="s">
         <v>6</v>
@@ -17903,7 +17903,7 @@
         <v>82</v>
       </c>
       <c r="L185">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -17917,7 +17917,7 @@
         <v>83</v>
       </c>
       <c r="D186">
-        <v>-5</v>
+        <v>26</v>
       </c>
       <c r="I186" t="s">
         <v>6</v>
@@ -17929,7 +17929,7 @@
         <v>83</v>
       </c>
       <c r="L186">
-        <v>-4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -17943,7 +17943,7 @@
         <v>84</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I187" t="s">
         <v>6</v>
@@ -17955,7 +17955,7 @@
         <v>84</v>
       </c>
       <c r="L187">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -17969,7 +17969,7 @@
         <v>85</v>
       </c>
       <c r="D188">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I188" t="s">
         <v>6</v>
@@ -17981,7 +17981,7 @@
         <v>85</v>
       </c>
       <c r="L188">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -17995,7 +17995,7 @@
         <v>86</v>
       </c>
       <c r="D189">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I189" t="s">
         <v>6</v>
@@ -18007,7 +18007,7 @@
         <v>86</v>
       </c>
       <c r="L189">
-        <v>-10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -18021,7 +18021,7 @@
         <v>87</v>
       </c>
       <c r="D190">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="I190" t="s">
         <v>6</v>
@@ -18033,7 +18033,7 @@
         <v>87</v>
       </c>
       <c r="L190">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -18047,7 +18047,7 @@
         <v>88</v>
       </c>
       <c r="D191">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I191" t="s">
         <v>6</v>
@@ -18059,7 +18059,7 @@
         <v>88</v>
       </c>
       <c r="L191">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -18073,7 +18073,7 @@
         <v>89</v>
       </c>
       <c r="D192">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I192" t="s">
         <v>6</v>
@@ -18085,7 +18085,7 @@
         <v>89</v>
       </c>
       <c r="L192">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -18099,7 +18099,7 @@
         <v>90</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I193" t="s">
         <v>6</v>
@@ -18111,7 +18111,7 @@
         <v>90</v>
       </c>
       <c r="L193">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -18125,7 +18125,7 @@
         <v>91</v>
       </c>
       <c r="D194">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I194" t="s">
         <v>6</v>
@@ -18137,7 +18137,7 @@
         <v>91</v>
       </c>
       <c r="L194">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -18151,7 +18151,7 @@
         <v>92</v>
       </c>
       <c r="D195">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I195" t="s">
         <v>6</v>
@@ -18163,7 +18163,7 @@
         <v>92</v>
       </c>
       <c r="L195">
-        <v>-6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -18177,7 +18177,7 @@
         <v>93</v>
       </c>
       <c r="D196">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="I196" t="s">
         <v>6</v>
@@ -18189,7 +18189,7 @@
         <v>93</v>
       </c>
       <c r="L196">
-        <v>-4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -18203,7 +18203,7 @@
         <v>94</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I197" t="s">
         <v>6</v>
@@ -18215,7 +18215,7 @@
         <v>94</v>
       </c>
       <c r="L197">
-        <v>-5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -18229,7 +18229,7 @@
         <v>95</v>
       </c>
       <c r="D198">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="I198" t="s">
         <v>6</v>
@@ -18241,7 +18241,7 @@
         <v>95</v>
       </c>
       <c r="L198">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -18255,7 +18255,7 @@
         <v>96</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I199" t="s">
         <v>6</v>
@@ -18267,7 +18267,7 @@
         <v>96</v>
       </c>
       <c r="L199">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -18281,7 +18281,7 @@
         <v>97</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I200" t="s">
         <v>6</v>
@@ -18293,7 +18293,7 @@
         <v>97</v>
       </c>
       <c r="L200">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -18307,7 +18307,7 @@
         <v>98</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="I201" t="s">
         <v>6</v>
@@ -18319,7 +18319,7 @@
         <v>98</v>
       </c>
       <c r="L201">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -18333,7 +18333,7 @@
         <v>99</v>
       </c>
       <c r="D202">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I202" t="s">
         <v>6</v>
@@ -18345,7 +18345,7 @@
         <v>99</v>
       </c>
       <c r="L202">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -18359,7 +18359,7 @@
         <v>100</v>
       </c>
       <c r="D203">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="I203" t="s">
         <v>6</v>
@@ -18371,7 +18371,7 @@
         <v>100</v>
       </c>
       <c r="L203">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="s">
         <v>8</v>
@@ -18397,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="L204">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -18411,7 +18411,7 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I205" t="s">
         <v>8</v>
@@ -18423,7 +18423,7 @@
         <v>1</v>
       </c>
       <c r="L205">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -18437,7 +18437,7 @@
         <v>2</v>
       </c>
       <c r="D206">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="I206" t="s">
         <v>8</v>
@@ -18449,7 +18449,7 @@
         <v>2</v>
       </c>
       <c r="L206">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -18463,7 +18463,7 @@
         <v>3</v>
       </c>
       <c r="D207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="s">
         <v>8</v>
@@ -18489,7 +18489,7 @@
         <v>4</v>
       </c>
       <c r="D208">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="I208" t="s">
         <v>8</v>
@@ -18501,7 +18501,7 @@
         <v>4</v>
       </c>
       <c r="L208">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -18515,7 +18515,7 @@
         <v>5</v>
       </c>
       <c r="D209">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I209" t="s">
         <v>8</v>
@@ -18527,7 +18527,7 @@
         <v>5</v>
       </c>
       <c r="L209">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -18541,7 +18541,7 @@
         <v>6</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I210" t="s">
         <v>8</v>
@@ -18553,7 +18553,7 @@
         <v>6</v>
       </c>
       <c r="L210">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -18579,7 +18579,7 @@
         <v>7</v>
       </c>
       <c r="L211">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -18593,7 +18593,7 @@
         <v>8</v>
       </c>
       <c r="D212">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I212" t="s">
         <v>8</v>
@@ -18605,7 +18605,7 @@
         <v>8</v>
       </c>
       <c r="L212">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -18619,7 +18619,7 @@
         <v>9</v>
       </c>
       <c r="D213">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="I213" t="s">
         <v>8</v>
@@ -18631,7 +18631,7 @@
         <v>9</v>
       </c>
       <c r="L213">
-        <v>-9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -18645,7 +18645,7 @@
         <v>10</v>
       </c>
       <c r="D214">
-        <v>-9</v>
+        <v>27</v>
       </c>
       <c r="I214" t="s">
         <v>8</v>
@@ -18657,7 +18657,7 @@
         <v>10</v>
       </c>
       <c r="L214">
-        <v>-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -18671,7 +18671,7 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="I215" t="s">
         <v>8</v>
@@ -18683,7 +18683,7 @@
         <v>11</v>
       </c>
       <c r="L215">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -18697,7 +18697,7 @@
         <v>12</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I216" t="s">
         <v>8</v>
@@ -18709,7 +18709,7 @@
         <v>12</v>
       </c>
       <c r="L216">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -18723,7 +18723,7 @@
         <v>13</v>
       </c>
       <c r="D217">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="I217" t="s">
         <v>8</v>
@@ -18735,7 +18735,7 @@
         <v>13</v>
       </c>
       <c r="L217">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -18749,7 +18749,7 @@
         <v>14</v>
       </c>
       <c r="D218">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I218" t="s">
         <v>8</v>
@@ -18761,7 +18761,7 @@
         <v>14</v>
       </c>
       <c r="L218">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -18775,7 +18775,7 @@
         <v>15</v>
       </c>
       <c r="D219">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I219" t="s">
         <v>8</v>
@@ -18787,7 +18787,7 @@
         <v>15</v>
       </c>
       <c r="L219">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -18801,7 +18801,7 @@
         <v>16</v>
       </c>
       <c r="D220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I220" t="s">
         <v>8</v>
@@ -18813,7 +18813,7 @@
         <v>16</v>
       </c>
       <c r="L220">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -18827,7 +18827,7 @@
         <v>17</v>
       </c>
       <c r="D221">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I221" t="s">
         <v>8</v>
@@ -18839,7 +18839,7 @@
         <v>17</v>
       </c>
       <c r="L221">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -18853,7 +18853,7 @@
         <v>18</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="s">
         <v>8</v>
@@ -18865,7 +18865,7 @@
         <v>18</v>
       </c>
       <c r="L222">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -18879,7 +18879,7 @@
         <v>19</v>
       </c>
       <c r="D223">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="I223" t="s">
         <v>8</v>
@@ -18891,7 +18891,7 @@
         <v>19</v>
       </c>
       <c r="L223">
-        <v>-9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -18905,7 +18905,7 @@
         <v>20</v>
       </c>
       <c r="D224">
-        <v>27</v>
+        <v>-4</v>
       </c>
       <c r="I224" t="s">
         <v>8</v>
@@ -18917,7 +18917,7 @@
         <v>20</v>
       </c>
       <c r="L224">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -18931,7 +18931,7 @@
         <v>21</v>
       </c>
       <c r="D225">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I225" t="s">
         <v>8</v>
@@ -18957,7 +18957,7 @@
         <v>22</v>
       </c>
       <c r="D226">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I226" t="s">
         <v>8</v>
@@ -18969,7 +18969,7 @@
         <v>22</v>
       </c>
       <c r="L226">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -18983,7 +18983,7 @@
         <v>23</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I227" t="s">
         <v>8</v>
@@ -18995,7 +18995,7 @@
         <v>23</v>
       </c>
       <c r="L227">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -19009,7 +19009,7 @@
         <v>24</v>
       </c>
       <c r="D228">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I228" t="s">
         <v>8</v>
@@ -19035,7 +19035,7 @@
         <v>25</v>
       </c>
       <c r="D229">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I229" t="s">
         <v>8</v>
@@ -19047,7 +19047,7 @@
         <v>25</v>
       </c>
       <c r="L229">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -19061,7 +19061,7 @@
         <v>26</v>
       </c>
       <c r="D230">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I230" t="s">
         <v>8</v>
@@ -19073,7 +19073,7 @@
         <v>26</v>
       </c>
       <c r="L230">
-        <v>-3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -19087,7 +19087,7 @@
         <v>27</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I231" t="s">
         <v>8</v>
@@ -19099,7 +19099,7 @@
         <v>27</v>
       </c>
       <c r="L231">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -19113,7 +19113,7 @@
         <v>28</v>
       </c>
       <c r="D232">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="s">
         <v>8</v>
@@ -19125,7 +19125,7 @@
         <v>28</v>
       </c>
       <c r="L232">
-        <v>-6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -19139,7 +19139,7 @@
         <v>29</v>
       </c>
       <c r="D233">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="I233" t="s">
         <v>8</v>
@@ -19151,7 +19151,7 @@
         <v>29</v>
       </c>
       <c r="L233">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -19165,7 +19165,7 @@
         <v>30</v>
       </c>
       <c r="D234">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="I234" t="s">
         <v>8</v>
@@ -19177,7 +19177,7 @@
         <v>30</v>
       </c>
       <c r="L234">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -19191,7 +19191,7 @@
         <v>31</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="s">
         <v>8</v>
@@ -19203,7 +19203,7 @@
         <v>31</v>
       </c>
       <c r="L235">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -19217,7 +19217,7 @@
         <v>32</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I236" t="s">
         <v>8</v>
@@ -19229,7 +19229,7 @@
         <v>32</v>
       </c>
       <c r="L236">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -19255,7 +19255,7 @@
         <v>33</v>
       </c>
       <c r="L237">
-        <v>-5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -19269,7 +19269,7 @@
         <v>34</v>
       </c>
       <c r="D238">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
         <v>8</v>
@@ -19281,7 +19281,7 @@
         <v>34</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -19295,7 +19295,7 @@
         <v>35</v>
       </c>
       <c r="D239">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I239" t="s">
         <v>8</v>
@@ -19307,7 +19307,7 @@
         <v>35</v>
       </c>
       <c r="L239">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -19321,7 +19321,7 @@
         <v>36</v>
       </c>
       <c r="D240">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I240" t="s">
         <v>8</v>
@@ -19333,7 +19333,7 @@
         <v>36</v>
       </c>
       <c r="L240">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -19347,7 +19347,7 @@
         <v>37</v>
       </c>
       <c r="D241">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I241" t="s">
         <v>8</v>
@@ -19359,7 +19359,7 @@
         <v>37</v>
       </c>
       <c r="L241">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -19373,7 +19373,7 @@
         <v>38</v>
       </c>
       <c r="D242">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I242" t="s">
         <v>8</v>
@@ -19385,7 +19385,7 @@
         <v>38</v>
       </c>
       <c r="L242">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -19399,7 +19399,7 @@
         <v>39</v>
       </c>
       <c r="D243">
-        <v>-4</v>
+        <v>27</v>
       </c>
       <c r="I243" t="s">
         <v>8</v>
@@ -19411,7 +19411,7 @@
         <v>39</v>
       </c>
       <c r="L243">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -19425,7 +19425,7 @@
         <v>40</v>
       </c>
       <c r="D244">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I244" t="s">
         <v>8</v>
@@ -19437,7 +19437,7 @@
         <v>40</v>
       </c>
       <c r="L244">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -19451,7 +19451,7 @@
         <v>41</v>
       </c>
       <c r="D245">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I245" t="s">
         <v>8</v>
@@ -19477,7 +19477,7 @@
         <v>42</v>
       </c>
       <c r="D246">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I246" t="s">
         <v>8</v>
@@ -19489,7 +19489,7 @@
         <v>42</v>
       </c>
       <c r="L246">
-        <v>-8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -19515,7 +19515,7 @@
         <v>43</v>
       </c>
       <c r="L247">
-        <v>-5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -19529,7 +19529,7 @@
         <v>44</v>
       </c>
       <c r="D248">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I248" t="s">
         <v>8</v>
@@ -19541,7 +19541,7 @@
         <v>44</v>
       </c>
       <c r="L248">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -19555,7 +19555,7 @@
         <v>45</v>
       </c>
       <c r="D249">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="I249" t="s">
         <v>8</v>
@@ -19567,7 +19567,7 @@
         <v>45</v>
       </c>
       <c r="L249">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -19581,7 +19581,7 @@
         <v>46</v>
       </c>
       <c r="D250">
-        <v>13</v>
+        <v>-5</v>
       </c>
       <c r="I250" t="s">
         <v>8</v>
@@ -19593,7 +19593,7 @@
         <v>46</v>
       </c>
       <c r="L250">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -19607,7 +19607,7 @@
         <v>47</v>
       </c>
       <c r="D251">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I251" t="s">
         <v>8</v>
@@ -19619,7 +19619,7 @@
         <v>47</v>
       </c>
       <c r="L251">
-        <v>-6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -19633,7 +19633,7 @@
         <v>48</v>
       </c>
       <c r="D252">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I252" t="s">
         <v>8</v>
@@ -19645,7 +19645,7 @@
         <v>48</v>
       </c>
       <c r="L252">
-        <v>-1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -19659,7 +19659,7 @@
         <v>49</v>
       </c>
       <c r="D253">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I253" t="s">
         <v>8</v>
@@ -19671,7 +19671,7 @@
         <v>49</v>
       </c>
       <c r="L253">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -19685,7 +19685,7 @@
         <v>50</v>
       </c>
       <c r="D254">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I254" t="s">
         <v>8</v>
@@ -19711,7 +19711,7 @@
         <v>51</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="I255" t="s">
         <v>8</v>
@@ -19723,7 +19723,7 @@
         <v>51</v>
       </c>
       <c r="L255">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -19737,7 +19737,7 @@
         <v>52</v>
       </c>
       <c r="D256">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="s">
         <v>8</v>
@@ -19749,7 +19749,7 @@
         <v>52</v>
       </c>
       <c r="L256">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -19763,7 +19763,7 @@
         <v>53</v>
       </c>
       <c r="D257">
-        <v>15</v>
+        <v>-4</v>
       </c>
       <c r="I257" t="s">
         <v>8</v>
@@ -19775,7 +19775,7 @@
         <v>53</v>
       </c>
       <c r="L257">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -19789,7 +19789,7 @@
         <v>54</v>
       </c>
       <c r="D258">
-        <v>27</v>
+        <v>-4</v>
       </c>
       <c r="I258" t="s">
         <v>8</v>
@@ -19801,7 +19801,7 @@
         <v>54</v>
       </c>
       <c r="L258">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -19815,7 +19815,7 @@
         <v>55</v>
       </c>
       <c r="D259">
-        <v>-10</v>
+        <v>26</v>
       </c>
       <c r="I259" t="s">
         <v>8</v>
@@ -19827,7 +19827,7 @@
         <v>55</v>
       </c>
       <c r="L259">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -19841,7 +19841,7 @@
         <v>56</v>
       </c>
       <c r="D260">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="I260" t="s">
         <v>8</v>
@@ -19853,7 +19853,7 @@
         <v>56</v>
       </c>
       <c r="L260">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -19867,7 +19867,7 @@
         <v>57</v>
       </c>
       <c r="D261">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I261" t="s">
         <v>8</v>
@@ -19879,7 +19879,7 @@
         <v>57</v>
       </c>
       <c r="L261">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -19893,7 +19893,7 @@
         <v>58</v>
       </c>
       <c r="D262">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="I262" t="s">
         <v>8</v>
@@ -19905,7 +19905,7 @@
         <v>58</v>
       </c>
       <c r="L262">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -19919,7 +19919,7 @@
         <v>59</v>
       </c>
       <c r="D263">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I263" t="s">
         <v>8</v>
@@ -19931,7 +19931,7 @@
         <v>59</v>
       </c>
       <c r="L263">
-        <v>-8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -19945,7 +19945,7 @@
         <v>60</v>
       </c>
       <c r="D264">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I264" t="s">
         <v>8</v>
@@ -19957,7 +19957,7 @@
         <v>60</v>
       </c>
       <c r="L264">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -19971,7 +19971,7 @@
         <v>61</v>
       </c>
       <c r="D265">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="I265" t="s">
         <v>8</v>
@@ -19983,7 +19983,7 @@
         <v>61</v>
       </c>
       <c r="L265">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -20009,7 +20009,7 @@
         <v>62</v>
       </c>
       <c r="L266">
-        <v>-5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -20035,7 +20035,7 @@
         <v>63</v>
       </c>
       <c r="L267">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -20049,7 +20049,7 @@
         <v>64</v>
       </c>
       <c r="D268">
-        <v>26</v>
+        <v>-1</v>
       </c>
       <c r="I268" t="s">
         <v>8</v>
@@ -20061,7 +20061,7 @@
         <v>64</v>
       </c>
       <c r="L268">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -20075,7 +20075,7 @@
         <v>65</v>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I269" t="s">
         <v>8</v>
@@ -20087,7 +20087,7 @@
         <v>65</v>
       </c>
       <c r="L269">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -20101,7 +20101,7 @@
         <v>66</v>
       </c>
       <c r="D270">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I270" t="s">
         <v>8</v>
@@ -20113,7 +20113,7 @@
         <v>66</v>
       </c>
       <c r="L270">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -20127,7 +20127,7 @@
         <v>67</v>
       </c>
       <c r="D271">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="I271" t="s">
         <v>8</v>
@@ -20139,7 +20139,7 @@
         <v>67</v>
       </c>
       <c r="L271">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -20153,7 +20153,7 @@
         <v>68</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I272" t="s">
         <v>8</v>
@@ -20165,7 +20165,7 @@
         <v>68</v>
       </c>
       <c r="L272">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -20179,7 +20179,7 @@
         <v>69</v>
       </c>
       <c r="D273">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I273" t="s">
         <v>8</v>
@@ -20191,7 +20191,7 @@
         <v>69</v>
       </c>
       <c r="L273">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -20205,7 +20205,7 @@
         <v>70</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I274" t="s">
         <v>8</v>
@@ -20217,7 +20217,7 @@
         <v>70</v>
       </c>
       <c r="L274">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -20231,7 +20231,7 @@
         <v>71</v>
       </c>
       <c r="D275">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="s">
         <v>8</v>
@@ -20243,7 +20243,7 @@
         <v>71</v>
       </c>
       <c r="L275">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -20257,7 +20257,7 @@
         <v>72</v>
       </c>
       <c r="D276">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="I276" t="s">
         <v>8</v>
@@ -20269,7 +20269,7 @@
         <v>72</v>
       </c>
       <c r="L276">
-        <v>-7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -20283,7 +20283,7 @@
         <v>73</v>
       </c>
       <c r="D277">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I277" t="s">
         <v>8</v>
@@ -20295,7 +20295,7 @@
         <v>73</v>
       </c>
       <c r="L277">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -20321,7 +20321,7 @@
         <v>74</v>
       </c>
       <c r="L278">
-        <v>-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -20335,7 +20335,7 @@
         <v>75</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I279" t="s">
         <v>8</v>
@@ -20347,7 +20347,7 @@
         <v>75</v>
       </c>
       <c r="L279">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -20361,7 +20361,7 @@
         <v>76</v>
       </c>
       <c r="D280">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I280" t="s">
         <v>8</v>
@@ -20373,7 +20373,7 @@
         <v>76</v>
       </c>
       <c r="L280">
-        <v>-4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -20399,7 +20399,7 @@
         <v>77</v>
       </c>
       <c r="L281">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -20413,7 +20413,7 @@
         <v>78</v>
       </c>
       <c r="D282">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I282" t="s">
         <v>8</v>
@@ -20439,7 +20439,7 @@
         <v>79</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="I283" t="s">
         <v>8</v>
@@ -20451,7 +20451,7 @@
         <v>79</v>
       </c>
       <c r="L283">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -20465,7 +20465,7 @@
         <v>80</v>
       </c>
       <c r="D284">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I284" t="s">
         <v>8</v>
@@ -20477,7 +20477,7 @@
         <v>80</v>
       </c>
       <c r="L284">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -20503,7 +20503,7 @@
         <v>81</v>
       </c>
       <c r="L285">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -20517,7 +20517,7 @@
         <v>82</v>
       </c>
       <c r="D286">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I286" t="s">
         <v>8</v>
@@ -20529,7 +20529,7 @@
         <v>82</v>
       </c>
       <c r="L286">
-        <v>-4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -20543,7 +20543,7 @@
         <v>83</v>
       </c>
       <c r="D287">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I287" t="s">
         <v>8</v>
@@ -20555,7 +20555,7 @@
         <v>83</v>
       </c>
       <c r="L287">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -20569,7 +20569,7 @@
         <v>84</v>
       </c>
       <c r="D288">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I288" t="s">
         <v>8</v>
@@ -20581,7 +20581,7 @@
         <v>84</v>
       </c>
       <c r="L288">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -20595,7 +20595,7 @@
         <v>85</v>
       </c>
       <c r="D289">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="I289" t="s">
         <v>8</v>
@@ -20607,7 +20607,7 @@
         <v>85</v>
       </c>
       <c r="L289">
-        <v>-9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -20621,7 +20621,7 @@
         <v>86</v>
       </c>
       <c r="D290">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>8</v>
@@ -20633,7 +20633,7 @@
         <v>86</v>
       </c>
       <c r="L290">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -20647,7 +20647,7 @@
         <v>87</v>
       </c>
       <c r="D291">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="I291" t="s">
         <v>8</v>
@@ -20659,7 +20659,7 @@
         <v>87</v>
       </c>
       <c r="L291">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -20685,7 +20685,7 @@
         <v>88</v>
       </c>
       <c r="L292">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -20699,7 +20699,7 @@
         <v>89</v>
       </c>
       <c r="D293">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I293" t="s">
         <v>8</v>
@@ -20711,7 +20711,7 @@
         <v>89</v>
       </c>
       <c r="L293">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -20725,7 +20725,7 @@
         <v>90</v>
       </c>
       <c r="D294">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I294" t="s">
         <v>8</v>
@@ -20737,7 +20737,7 @@
         <v>90</v>
       </c>
       <c r="L294">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -20751,7 +20751,7 @@
         <v>91</v>
       </c>
       <c r="D295">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I295" t="s">
         <v>8</v>
@@ -20763,7 +20763,7 @@
         <v>91</v>
       </c>
       <c r="L295">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -20777,7 +20777,7 @@
         <v>92</v>
       </c>
       <c r="D296">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="I296" t="s">
         <v>8</v>
@@ -20789,7 +20789,7 @@
         <v>92</v>
       </c>
       <c r="L296">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -20803,7 +20803,7 @@
         <v>93</v>
       </c>
       <c r="D297">
-        <v>27</v>
+        <v>-1</v>
       </c>
       <c r="I297" t="s">
         <v>8</v>
@@ -20815,7 +20815,7 @@
         <v>93</v>
       </c>
       <c r="L297">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -20829,7 +20829,7 @@
         <v>94</v>
       </c>
       <c r="D298">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="I298" t="s">
         <v>8</v>
@@ -20841,7 +20841,7 @@
         <v>94</v>
       </c>
       <c r="L298">
-        <v>22</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -20855,7 +20855,7 @@
         <v>95</v>
       </c>
       <c r="D299">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I299" t="s">
         <v>8</v>
@@ -20867,7 +20867,7 @@
         <v>95</v>
       </c>
       <c r="L299">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -20881,7 +20881,7 @@
         <v>96</v>
       </c>
       <c r="D300">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I300" t="s">
         <v>8</v>
@@ -20893,7 +20893,7 @@
         <v>96</v>
       </c>
       <c r="L300">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -20919,7 +20919,7 @@
         <v>97</v>
       </c>
       <c r="L301">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -20933,7 +20933,7 @@
         <v>98</v>
       </c>
       <c r="D302">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I302" t="s">
         <v>8</v>
@@ -20945,7 +20945,7 @@
         <v>98</v>
       </c>
       <c r="L302">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -20959,7 +20959,7 @@
         <v>99</v>
       </c>
       <c r="D303">
-        <v>-4</v>
+        <v>23</v>
       </c>
       <c r="I303" t="s">
         <v>8</v>
@@ -20971,7 +20971,7 @@
         <v>99</v>
       </c>
       <c r="L303">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -20985,7 +20985,7 @@
         <v>100</v>
       </c>
       <c r="D304">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I304" t="s">
         <v>8</v>
@@ -20997,7 +20997,7 @@
         <v>100</v>
       </c>
       <c r="L304">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -21011,7 +21011,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I305" t="s">
         <v>9</v>
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="L305">
-        <v>18</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -21037,7 +21037,7 @@
         <v>1</v>
       </c>
       <c r="D306">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="s">
         <v>9</v>
@@ -21049,7 +21049,7 @@
         <v>1</v>
       </c>
       <c r="L306">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -21063,7 +21063,7 @@
         <v>2</v>
       </c>
       <c r="D307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="s">
         <v>9</v>
@@ -21075,7 +21075,7 @@
         <v>2</v>
       </c>
       <c r="L307">
-        <v>-10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -21089,7 +21089,7 @@
         <v>3</v>
       </c>
       <c r="D308">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="s">
         <v>9</v>
@@ -21101,7 +21101,7 @@
         <v>3</v>
       </c>
       <c r="L308">
-        <v>-3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -21115,7 +21115,7 @@
         <v>4</v>
       </c>
       <c r="D309">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I309" t="s">
         <v>9</v>
@@ -21127,7 +21127,7 @@
         <v>4</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -21141,7 +21141,7 @@
         <v>5</v>
       </c>
       <c r="D310">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I310" t="s">
         <v>9</v>
@@ -21153,7 +21153,7 @@
         <v>5</v>
       </c>
       <c r="L310">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -21167,7 +21167,7 @@
         <v>6</v>
       </c>
       <c r="D311">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="I311" t="s">
         <v>9</v>
@@ -21179,7 +21179,7 @@
         <v>6</v>
       </c>
       <c r="L311">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -21205,7 +21205,7 @@
         <v>7</v>
       </c>
       <c r="L312">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -21219,7 +21219,7 @@
         <v>8</v>
       </c>
       <c r="D313">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I313" t="s">
         <v>9</v>
@@ -21231,7 +21231,7 @@
         <v>8</v>
       </c>
       <c r="L313">
-        <v>-1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -21245,7 +21245,7 @@
         <v>9</v>
       </c>
       <c r="D314">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="I314" t="s">
         <v>9</v>
@@ -21257,7 +21257,7 @@
         <v>9</v>
       </c>
       <c r="L314">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -21271,7 +21271,7 @@
         <v>10</v>
       </c>
       <c r="D315">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I315" t="s">
         <v>9</v>
@@ -21283,7 +21283,7 @@
         <v>10</v>
       </c>
       <c r="L315">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -21297,7 +21297,7 @@
         <v>11</v>
       </c>
       <c r="D316">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I316" t="s">
         <v>9</v>
@@ -21309,7 +21309,7 @@
         <v>11</v>
       </c>
       <c r="L316">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -21323,7 +21323,7 @@
         <v>12</v>
       </c>
       <c r="D317">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="I317" t="s">
         <v>9</v>
@@ -21335,7 +21335,7 @@
         <v>12</v>
       </c>
       <c r="L317">
-        <v>8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -21349,7 +21349,7 @@
         <v>13</v>
       </c>
       <c r="D318">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I318" t="s">
         <v>9</v>
@@ -21361,7 +21361,7 @@
         <v>13</v>
       </c>
       <c r="L318">
-        <v>26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -21375,7 +21375,7 @@
         <v>14</v>
       </c>
       <c r="D319">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I319" t="s">
         <v>9</v>
@@ -21387,7 +21387,7 @@
         <v>14</v>
       </c>
       <c r="L319">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -21401,7 +21401,7 @@
         <v>15</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="s">
         <v>9</v>
@@ -21413,7 +21413,7 @@
         <v>15</v>
       </c>
       <c r="L320">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -21427,7 +21427,7 @@
         <v>16</v>
       </c>
       <c r="D321">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I321" t="s">
         <v>9</v>
@@ -21439,7 +21439,7 @@
         <v>16</v>
       </c>
       <c r="L321">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -21453,7 +21453,7 @@
         <v>17</v>
       </c>
       <c r="D322">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I322" t="s">
         <v>9</v>
@@ -21465,7 +21465,7 @@
         <v>17</v>
       </c>
       <c r="L322">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -21479,7 +21479,7 @@
         <v>18</v>
       </c>
       <c r="D323">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I323" t="s">
         <v>9</v>
@@ -21491,7 +21491,7 @@
         <v>18</v>
       </c>
       <c r="L323">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -21505,7 +21505,7 @@
         <v>19</v>
       </c>
       <c r="D324">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I324" t="s">
         <v>9</v>
@@ -21517,7 +21517,7 @@
         <v>19</v>
       </c>
       <c r="L324">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -21531,7 +21531,7 @@
         <v>20</v>
       </c>
       <c r="D325">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I325" t="s">
         <v>9</v>
@@ -21543,7 +21543,7 @@
         <v>20</v>
       </c>
       <c r="L325">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -21557,7 +21557,7 @@
         <v>21</v>
       </c>
       <c r="D326">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I326" t="s">
         <v>9</v>
@@ -21569,7 +21569,7 @@
         <v>21</v>
       </c>
       <c r="L326">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -21583,7 +21583,7 @@
         <v>22</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I327" t="s">
         <v>9</v>
@@ -21595,7 +21595,7 @@
         <v>22</v>
       </c>
       <c r="L327">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -21609,7 +21609,7 @@
         <v>23</v>
       </c>
       <c r="D328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I328" t="s">
         <v>9</v>
@@ -21621,7 +21621,7 @@
         <v>23</v>
       </c>
       <c r="L328">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -21635,7 +21635,7 @@
         <v>24</v>
       </c>
       <c r="D329">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I329" t="s">
         <v>9</v>
@@ -21647,7 +21647,7 @@
         <v>24</v>
       </c>
       <c r="L329">
-        <v>-8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -21661,7 +21661,7 @@
         <v>25</v>
       </c>
       <c r="D330">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I330" t="s">
         <v>9</v>
@@ -21673,7 +21673,7 @@
         <v>25</v>
       </c>
       <c r="L330">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -21687,7 +21687,7 @@
         <v>26</v>
       </c>
       <c r="D331">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I331" t="s">
         <v>9</v>
@@ -21713,7 +21713,7 @@
         <v>27</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I332" t="s">
         <v>9</v>
@@ -21725,7 +21725,7 @@
         <v>27</v>
       </c>
       <c r="L332">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -21739,7 +21739,7 @@
         <v>28</v>
       </c>
       <c r="D333">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="s">
         <v>9</v>
@@ -21751,7 +21751,7 @@
         <v>28</v>
       </c>
       <c r="L333">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -21765,7 +21765,7 @@
         <v>29</v>
       </c>
       <c r="D334">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="s">
         <v>9</v>
@@ -21791,7 +21791,7 @@
         <v>30</v>
       </c>
       <c r="D335">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I335" t="s">
         <v>9</v>
@@ -21803,7 +21803,7 @@
         <v>30</v>
       </c>
       <c r="L335">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -21817,7 +21817,7 @@
         <v>31</v>
       </c>
       <c r="D336">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I336" t="s">
         <v>9</v>
@@ -21829,7 +21829,7 @@
         <v>31</v>
       </c>
       <c r="L336">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -21855,7 +21855,7 @@
         <v>32</v>
       </c>
       <c r="L337">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
@@ -21869,7 +21869,7 @@
         <v>33</v>
       </c>
       <c r="D338">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I338" t="s">
         <v>9</v>
@@ -21881,7 +21881,7 @@
         <v>33</v>
       </c>
       <c r="L338">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
@@ -21895,7 +21895,7 @@
         <v>34</v>
       </c>
       <c r="D339">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I339" t="s">
         <v>9</v>
@@ -21907,7 +21907,7 @@
         <v>34</v>
       </c>
       <c r="L339">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -21921,7 +21921,7 @@
         <v>35</v>
       </c>
       <c r="D340">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I340" t="s">
         <v>9</v>
@@ -21933,7 +21933,7 @@
         <v>35</v>
       </c>
       <c r="L340">
-        <v>-2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
@@ -21947,7 +21947,7 @@
         <v>36</v>
       </c>
       <c r="D341">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I341" t="s">
         <v>9</v>
@@ -21959,7 +21959,7 @@
         <v>36</v>
       </c>
       <c r="L341">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
@@ -21973,7 +21973,7 @@
         <v>37</v>
       </c>
       <c r="D342">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I342" t="s">
         <v>9</v>
@@ -21985,7 +21985,7 @@
         <v>37</v>
       </c>
       <c r="L342">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -21999,7 +21999,7 @@
         <v>38</v>
       </c>
       <c r="D343">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I343" t="s">
         <v>9</v>
@@ -22011,7 +22011,7 @@
         <v>38</v>
       </c>
       <c r="L343">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
@@ -22037,7 +22037,7 @@
         <v>39</v>
       </c>
       <c r="L344">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -22051,7 +22051,7 @@
         <v>40</v>
       </c>
       <c r="D345">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I345" t="s">
         <v>9</v>
@@ -22063,7 +22063,7 @@
         <v>40</v>
       </c>
       <c r="L345">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -22077,7 +22077,7 @@
         <v>41</v>
       </c>
       <c r="D346">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I346" t="s">
         <v>9</v>
@@ -22089,7 +22089,7 @@
         <v>41</v>
       </c>
       <c r="L346">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
@@ -22103,7 +22103,7 @@
         <v>42</v>
       </c>
       <c r="D347">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="I347" t="s">
         <v>9</v>
@@ -22115,7 +22115,7 @@
         <v>42</v>
       </c>
       <c r="L347">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -22129,7 +22129,7 @@
         <v>43</v>
       </c>
       <c r="D348">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I348" t="s">
         <v>9</v>
@@ -22141,7 +22141,7 @@
         <v>43</v>
       </c>
       <c r="L348">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -22155,7 +22155,7 @@
         <v>44</v>
       </c>
       <c r="D349">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="I349" t="s">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>44</v>
       </c>
       <c r="L349">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -22181,7 +22181,7 @@
         <v>45</v>
       </c>
       <c r="D350">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I350" t="s">
         <v>9</v>
@@ -22193,7 +22193,7 @@
         <v>45</v>
       </c>
       <c r="L350">
-        <v>13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -22207,7 +22207,7 @@
         <v>46</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="s">
         <v>9</v>
@@ -22219,7 +22219,7 @@
         <v>46</v>
       </c>
       <c r="L351">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -22233,7 +22233,7 @@
         <v>47</v>
       </c>
       <c r="D352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="s">
         <v>9</v>
@@ -22245,7 +22245,7 @@
         <v>47</v>
       </c>
       <c r="L352">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -22259,7 +22259,7 @@
         <v>48</v>
       </c>
       <c r="D353">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I353" t="s">
         <v>9</v>
@@ -22271,7 +22271,7 @@
         <v>48</v>
       </c>
       <c r="L353">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -22285,7 +22285,7 @@
         <v>49</v>
       </c>
       <c r="D354">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="I354" t="s">
         <v>9</v>
@@ -22297,7 +22297,7 @@
         <v>49</v>
       </c>
       <c r="L354">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -22311,7 +22311,7 @@
         <v>50</v>
       </c>
       <c r="D355">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I355" t="s">
         <v>9</v>
@@ -22323,7 +22323,7 @@
         <v>50</v>
       </c>
       <c r="L355">
-        <v>-13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -22337,7 +22337,7 @@
         <v>51</v>
       </c>
       <c r="D356">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="I356" t="s">
         <v>9</v>
@@ -22363,7 +22363,7 @@
         <v>52</v>
       </c>
       <c r="D357">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I357" t="s">
         <v>9</v>
@@ -22375,7 +22375,7 @@
         <v>52</v>
       </c>
       <c r="L357">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -22389,7 +22389,7 @@
         <v>53</v>
       </c>
       <c r="D358">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="I358" t="s">
         <v>9</v>
@@ -22415,7 +22415,7 @@
         <v>54</v>
       </c>
       <c r="D359">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I359" t="s">
         <v>9</v>
@@ -22427,7 +22427,7 @@
         <v>54</v>
       </c>
       <c r="L359">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -22441,7 +22441,7 @@
         <v>55</v>
       </c>
       <c r="D360">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I360" t="s">
         <v>9</v>
@@ -22453,7 +22453,7 @@
         <v>55</v>
       </c>
       <c r="L360">
-        <v>-5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -22467,7 +22467,7 @@
         <v>56</v>
       </c>
       <c r="D361">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="I361" t="s">
         <v>9</v>
@@ -22479,7 +22479,7 @@
         <v>56</v>
       </c>
       <c r="L361">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -22493,7 +22493,7 @@
         <v>57</v>
       </c>
       <c r="D362">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I362" t="s">
         <v>9</v>
@@ -22505,7 +22505,7 @@
         <v>57</v>
       </c>
       <c r="L362">
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -22519,7 +22519,7 @@
         <v>58</v>
       </c>
       <c r="D363">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="I363" t="s">
         <v>9</v>
@@ -22531,7 +22531,7 @@
         <v>58</v>
       </c>
       <c r="L363">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -22545,7 +22545,7 @@
         <v>59</v>
       </c>
       <c r="D364">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="I364" t="s">
         <v>9</v>
@@ -22557,7 +22557,7 @@
         <v>59</v>
       </c>
       <c r="L364">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -22571,7 +22571,7 @@
         <v>60</v>
       </c>
       <c r="D365">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I365" t="s">
         <v>9</v>
@@ -22583,7 +22583,7 @@
         <v>60</v>
       </c>
       <c r="L365">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -22597,7 +22597,7 @@
         <v>61</v>
       </c>
       <c r="D366">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="I366" t="s">
         <v>9</v>
@@ -22609,7 +22609,7 @@
         <v>61</v>
       </c>
       <c r="L366">
-        <v>31</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -22623,7 +22623,7 @@
         <v>62</v>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I367" t="s">
         <v>9</v>
@@ -22635,7 +22635,7 @@
         <v>62</v>
       </c>
       <c r="L367">
-        <v>-10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -22649,7 +22649,7 @@
         <v>63</v>
       </c>
       <c r="D368">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="s">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>63</v>
       </c>
       <c r="L368">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -22675,7 +22675,7 @@
         <v>64</v>
       </c>
       <c r="D369">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="s">
         <v>9</v>
@@ -22687,7 +22687,7 @@
         <v>64</v>
       </c>
       <c r="L369">
-        <v>11</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -22701,7 +22701,7 @@
         <v>65</v>
       </c>
       <c r="D370">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="I370" t="s">
         <v>9</v>
@@ -22713,7 +22713,7 @@
         <v>65</v>
       </c>
       <c r="L370">
-        <v>-4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -22727,7 +22727,7 @@
         <v>66</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I371" t="s">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>66</v>
       </c>
       <c r="L371">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -22753,7 +22753,7 @@
         <v>67</v>
       </c>
       <c r="D372">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="I372" t="s">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>67</v>
       </c>
       <c r="L372">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -22779,7 +22779,7 @@
         <v>68</v>
       </c>
       <c r="D373">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="s">
         <v>9</v>
@@ -22791,7 +22791,7 @@
         <v>68</v>
       </c>
       <c r="L373">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -22805,7 +22805,7 @@
         <v>69</v>
       </c>
       <c r="D374">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I374" t="s">
         <v>9</v>
@@ -22817,7 +22817,7 @@
         <v>69</v>
       </c>
       <c r="L374">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -22831,7 +22831,7 @@
         <v>70</v>
       </c>
       <c r="D375">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I375" t="s">
         <v>9</v>
@@ -22843,7 +22843,7 @@
         <v>70</v>
       </c>
       <c r="L375">
-        <v>-3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -22857,7 +22857,7 @@
         <v>71</v>
       </c>
       <c r="D376">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I376" t="s">
         <v>9</v>
@@ -22869,7 +22869,7 @@
         <v>71</v>
       </c>
       <c r="L376">
-        <v>-1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -22883,7 +22883,7 @@
         <v>72</v>
       </c>
       <c r="D377">
-        <v>-7</v>
+        <v>23</v>
       </c>
       <c r="I377" t="s">
         <v>9</v>
@@ -22895,7 +22895,7 @@
         <v>72</v>
       </c>
       <c r="L377">
-        <v>-3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -22909,7 +22909,7 @@
         <v>73</v>
       </c>
       <c r="D378">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I378" t="s">
         <v>9</v>
@@ -22921,7 +22921,7 @@
         <v>73</v>
       </c>
       <c r="L378">
-        <v>14</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -22935,7 +22935,7 @@
         <v>74</v>
       </c>
       <c r="D379">
-        <v>-10</v>
+        <v>4</v>
       </c>
       <c r="I379" t="s">
         <v>9</v>
@@ -22947,7 +22947,7 @@
         <v>74</v>
       </c>
       <c r="L379">
-        <v>-5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -22961,7 +22961,7 @@
         <v>75</v>
       </c>
       <c r="D380">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I380" t="s">
         <v>9</v>
@@ -22973,7 +22973,7 @@
         <v>75</v>
       </c>
       <c r="L380">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -22987,7 +22987,7 @@
         <v>76</v>
       </c>
       <c r="D381">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I381" t="s">
         <v>9</v>
@@ -22999,7 +22999,7 @@
         <v>76</v>
       </c>
       <c r="L381">
-        <v>-5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -23013,7 +23013,7 @@
         <v>77</v>
       </c>
       <c r="D382">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I382" t="s">
         <v>9</v>
@@ -23025,7 +23025,7 @@
         <v>77</v>
       </c>
       <c r="L382">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -23039,7 +23039,7 @@
         <v>78</v>
       </c>
       <c r="D383">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I383" t="s">
         <v>9</v>
@@ -23051,7 +23051,7 @@
         <v>78</v>
       </c>
       <c r="L383">
-        <v>14</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -23077,7 +23077,7 @@
         <v>79</v>
       </c>
       <c r="L384">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -23091,7 +23091,7 @@
         <v>80</v>
       </c>
       <c r="D385">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I385" t="s">
         <v>9</v>
@@ -23103,7 +23103,7 @@
         <v>80</v>
       </c>
       <c r="L385">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -23129,7 +23129,7 @@
         <v>81</v>
       </c>
       <c r="L386">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -23143,7 +23143,7 @@
         <v>82</v>
       </c>
       <c r="D387">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="I387" t="s">
         <v>9</v>
@@ -23155,7 +23155,7 @@
         <v>82</v>
       </c>
       <c r="L387">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -23169,7 +23169,7 @@
         <v>83</v>
       </c>
       <c r="D388">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I388" t="s">
         <v>9</v>
@@ -23181,7 +23181,7 @@
         <v>83</v>
       </c>
       <c r="L388">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -23195,7 +23195,7 @@
         <v>84</v>
       </c>
       <c r="D389">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I389" t="s">
         <v>9</v>
@@ -23207,7 +23207,7 @@
         <v>84</v>
       </c>
       <c r="L389">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -23221,7 +23221,7 @@
         <v>85</v>
       </c>
       <c r="D390">
-        <v>-4</v>
+        <v>31</v>
       </c>
       <c r="I390" t="s">
         <v>9</v>
@@ -23233,7 +23233,7 @@
         <v>85</v>
       </c>
       <c r="L390">
-        <v>15</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -23247,7 +23247,7 @@
         <v>86</v>
       </c>
       <c r="D391">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="I391" t="s">
         <v>9</v>
@@ -23259,7 +23259,7 @@
         <v>86</v>
       </c>
       <c r="L391">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -23273,7 +23273,7 @@
         <v>87</v>
       </c>
       <c r="D392">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I392" t="s">
         <v>9</v>
@@ -23285,7 +23285,7 @@
         <v>87</v>
       </c>
       <c r="L392">
-        <v>-4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -23299,7 +23299,7 @@
         <v>88</v>
       </c>
       <c r="D393">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I393" t="s">
         <v>9</v>
@@ -23311,7 +23311,7 @@
         <v>88</v>
       </c>
       <c r="L393">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -23325,7 +23325,7 @@
         <v>89</v>
       </c>
       <c r="D394">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="I394" t="s">
         <v>9</v>
@@ -23337,7 +23337,7 @@
         <v>89</v>
       </c>
       <c r="L394">
-        <v>-7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -23351,7 +23351,7 @@
         <v>90</v>
       </c>
       <c r="D395">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I395" t="s">
         <v>9</v>
@@ -23363,7 +23363,7 @@
         <v>90</v>
       </c>
       <c r="L395">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -23389,7 +23389,7 @@
         <v>91</v>
       </c>
       <c r="L396">
-        <v>-10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -23403,7 +23403,7 @@
         <v>92</v>
       </c>
       <c r="D397">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I397" t="s">
         <v>9</v>
@@ -23415,7 +23415,7 @@
         <v>92</v>
       </c>
       <c r="L397">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -23429,7 +23429,7 @@
         <v>93</v>
       </c>
       <c r="D398">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="I398" t="s">
         <v>9</v>
@@ -23441,7 +23441,7 @@
         <v>93</v>
       </c>
       <c r="L398">
-        <v>-5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -23455,7 +23455,7 @@
         <v>94</v>
       </c>
       <c r="D399">
-        <v>-3</v>
+        <v>26</v>
       </c>
       <c r="I399" t="s">
         <v>9</v>
@@ -23467,7 +23467,7 @@
         <v>94</v>
       </c>
       <c r="L399">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -23481,7 +23481,7 @@
         <v>95</v>
       </c>
       <c r="D400">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I400" t="s">
         <v>9</v>
@@ -23493,7 +23493,7 @@
         <v>95</v>
       </c>
       <c r="L400">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -23507,7 +23507,7 @@
         <v>96</v>
       </c>
       <c r="D401">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I401" t="s">
         <v>9</v>
@@ -23519,7 +23519,7 @@
         <v>96</v>
       </c>
       <c r="L401">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -23533,7 +23533,7 @@
         <v>97</v>
       </c>
       <c r="D402">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I402" t="s">
         <v>9</v>
@@ -23545,7 +23545,7 @@
         <v>97</v>
       </c>
       <c r="L402">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -23559,7 +23559,7 @@
         <v>98</v>
       </c>
       <c r="D403">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="I403" t="s">
         <v>9</v>
@@ -23571,7 +23571,7 @@
         <v>98</v>
       </c>
       <c r="L403">
-        <v>27</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -23585,7 +23585,7 @@
         <v>99</v>
       </c>
       <c r="D404">
-        <v>-1</v>
+        <v>26</v>
       </c>
       <c r="I404" t="s">
         <v>9</v>
@@ -23597,7 +23597,7 @@
         <v>99</v>
       </c>
       <c r="L404">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -23611,7 +23611,7 @@
         <v>100</v>
       </c>
       <c r="D405">
-        <v>-5</v>
+        <v>22</v>
       </c>
       <c r="I405" t="s">
         <v>9</v>
@@ -23623,7 +23623,7 @@
         <v>100</v>
       </c>
       <c r="L405">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -35232,7 +35232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1CB0BF-6117-1A4C-96DA-D18D2AC5DB1C}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -36381,8 +36381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADFF731C-EBE2-BC44-B0BB-9E150B15F4C5}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36406,7 +36406,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -36420,7 +36420,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -36434,7 +36434,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -36448,7 +36448,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4.3</v>
+        <v>8.1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -36462,7 +36462,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -36476,7 +36476,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -36490,7 +36490,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -36504,7 +36504,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>9.5</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -36518,7 +36518,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -36532,7 +36532,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -36546,7 +36546,7 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1.7</v>
+        <v>-1.2</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -36560,7 +36560,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -36574,7 +36574,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
@@ -36588,7 +36588,7 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>5.6</v>
+        <v>-1.6</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
@@ -36602,7 +36602,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
@@ -36616,7 +36616,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>5.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -36630,7 +36630,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -36644,7 +36644,7 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>2.9</v>
+        <v>11.6</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -36658,7 +36658,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
@@ -36672,7 +36672,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>0.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -36686,9 +36686,9 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>6.1</v>
-      </c>
-      <c r="C22" t="s">
+        <v>-2.1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
@@ -36700,9 +36700,9 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>3.2</v>
-      </c>
-      <c r="C23" t="s">
+        <v>4.7</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
@@ -36714,9 +36714,9 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="C24" t="s">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
@@ -36728,9 +36728,9 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>-0.1</v>
-      </c>
-      <c r="C25" t="s">
+        <v>1.7</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
@@ -36742,9 +36742,9 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>7.8</v>
-      </c>
-      <c r="C26" t="s">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
@@ -36756,9 +36756,9 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>5.9</v>
-      </c>
-      <c r="C27" t="s">
+        <v>5.6</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
@@ -36770,9 +36770,9 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>6.2</v>
-      </c>
-      <c r="C28" t="s">
+        <v>-0.8</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
@@ -36784,9 +36784,9 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>3.1</v>
-      </c>
-      <c r="C29" t="s">
+        <v>1.2</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
@@ -36798,9 +36798,9 @@
         <v>9</v>
       </c>
       <c r="B30">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C30" t="s">
+        <v>7.1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
@@ -36812,9 +36812,9 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>6.4</v>
-      </c>
-      <c r="C31" t="s">
+        <v>5.7</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
@@ -36826,7 +36826,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>-0.4</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -36840,7 +36840,7 @@
         <v>2</v>
       </c>
       <c r="B33">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -36854,7 +36854,7 @@
         <v>3</v>
       </c>
       <c r="B34">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -36868,7 +36868,7 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -36882,7 +36882,7 @@
         <v>5</v>
       </c>
       <c r="B36">
-        <v>10.1</v>
+        <v>-1</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -36896,7 +36896,7 @@
         <v>6</v>
       </c>
       <c r="B37">
-        <v>4.4000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
@@ -36910,7 +36910,7 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>-0.3</v>
+        <v>1.7</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
@@ -36924,7 +36924,7 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>1.1000000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -36938,7 +36938,7 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
@@ -36952,7 +36952,7 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>0.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -36966,7 +36966,7 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -36980,7 +36980,7 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>3.1</v>
+        <v>18.7</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -36994,7 +36994,7 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>4.4000000000000004</v>
+        <v>10.3</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -37008,7 +37008,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>4.3</v>
+        <v>11.6</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -37022,7 +37022,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>3.3</v>
+        <v>7.3</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -37036,7 +37036,7 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>3.6</v>
+        <v>14.7</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -37050,7 +37050,7 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>11.6</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -37064,7 +37064,7 @@
         <v>8</v>
       </c>
       <c r="B49">
-        <v>0.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -37078,7 +37078,7 @@
         <v>9</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>9.4</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -37092,7 +37092,7 @@
         <v>10</v>
       </c>
       <c r="B51">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -37106,7 +37106,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -37120,7 +37120,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>5.0999999999999996</v>
+        <v>11.1</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -37134,7 +37134,7 @@
         <v>3</v>
       </c>
       <c r="B54">
-        <v>2.6</v>
+        <v>14.2</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -37148,7 +37148,7 @@
         <v>4</v>
       </c>
       <c r="B55">
-        <v>0.3</v>
+        <v>13.6</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -37162,7 +37162,7 @@
         <v>5</v>
       </c>
       <c r="B56">
-        <v>2.1</v>
+        <v>11.6</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -37176,7 +37176,7 @@
         <v>6</v>
       </c>
       <c r="B57">
-        <v>5.8</v>
+        <v>11.6</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -37190,7 +37190,7 @@
         <v>7</v>
       </c>
       <c r="B58">
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -37204,7 +37204,7 @@
         <v>8</v>
       </c>
       <c r="B59">
-        <v>2.8</v>
+        <v>15.1</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -37218,7 +37218,7 @@
         <v>9</v>
       </c>
       <c r="B60">
-        <v>2.4</v>
+        <v>15.1</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -37232,7 +37232,7 @@
         <v>10</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>13.2</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -37246,9 +37246,9 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
@@ -37260,9 +37260,9 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>3.1</v>
-      </c>
-      <c r="C63" t="s">
+        <v>9.1</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
@@ -37274,9 +37274,9 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C64" t="s">
+        <v>6.6</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
@@ -37288,9 +37288,9 @@
         <v>4</v>
       </c>
       <c r="B65">
-        <v>0.9</v>
-      </c>
-      <c r="C65" t="s">
+        <v>10.3</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
@@ -37302,9 +37302,9 @@
         <v>5</v>
       </c>
       <c r="B66">
-        <v>1.9</v>
-      </c>
-      <c r="C66" t="s">
+        <v>11.7</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
@@ -37316,9 +37316,9 @@
         <v>6</v>
       </c>
       <c r="B67">
-        <v>6.6</v>
-      </c>
-      <c r="C67" t="s">
+        <v>5.7</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
@@ -37330,9 +37330,9 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
@@ -37344,9 +37344,9 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <v>2</v>
-      </c>
-      <c r="C69" t="s">
+        <v>14.2</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
@@ -37358,9 +37358,9 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <v>7.2</v>
-      </c>
-      <c r="C70" t="s">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
@@ -37372,9 +37372,9 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <v>7.3</v>
-      </c>
-      <c r="C71" t="s">
+        <v>6.3</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
@@ -37386,7 +37386,7 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>-0.2</v>
+        <v>12.6</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -37400,7 +37400,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -37414,7 +37414,7 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>-0.2</v>
+        <v>1.6</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -37428,7 +37428,7 @@
         <v>4</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -37442,7 +37442,7 @@
         <v>5</v>
       </c>
       <c r="B76">
-        <v>6.3</v>
+        <v>4.2</v>
       </c>
       <c r="C76" t="s">
         <v>9</v>
@@ -37456,7 +37456,7 @@
         <v>6</v>
       </c>
       <c r="B77">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="C77" t="s">
         <v>9</v>
@@ -37470,7 +37470,7 @@
         <v>7</v>
       </c>
       <c r="B78">
-        <v>4.2</v>
+        <v>12.2</v>
       </c>
       <c r="C78" t="s">
         <v>9</v>
@@ -37484,7 +37484,7 @@
         <v>8</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
@@ -37498,7 +37498,7 @@
         <v>9</v>
       </c>
       <c r="B80">
-        <v>-0.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C80" t="s">
         <v>9</v>
@@ -37512,7 +37512,7 @@
         <v>10</v>
       </c>
       <c r="B81">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="C81" t="s">
         <v>9</v>
